--- a/biology/Botanique/Calceolaria_martinezii/Calceolaria_martinezii.xlsx
+++ b/biology/Botanique/Calceolaria_martinezii/Calceolaria_martinezii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Calceolaria martinezii est une espèce de plantes herbacées de la famille des Calceolariaceae.
 Cette espèce est endémique sur le plateau d'Ambato dans le centre de l'Équateur, où elle n'est connue que de deux sous-populations : l'une sur les pentes du volcan Tungurahua, et l'autre près de la ville de Patate.
@@ -512,9 +524,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est un arbuste grimpant qui pousse principalement dans le biome tropical humide[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un arbuste grimpant qui pousse principalement dans le biome tropical humide.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce taxon se rencontre dans le pays suivant[2] : Équateur. Elle est classée comme en danger sur la liste rouge de l'UICN
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce taxon se rencontre dans le pays suivant : Équateur. Elle est classée comme en danger sur la liste rouge de l'UICN
 </t>
         </is>
       </c>
@@ -574,10 +590,12 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Le nom correct complet (avec auteur) de ce taxon est Calceolaria martinezii Kraenzl.[3].
-Calceolaria martinezii a pour synonyme[3] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Le nom correct complet (avec auteur) de ce taxon est Calceolaria martinezii Kraenzl..
+Calceolaria martinezii a pour synonyme :
 Calceolaria patens Kraenzl.</t>
         </is>
       </c>
